--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -174,9 +175,6 @@
     <t>Opcion de cerrar session vuelve al menu login</t>
   </si>
   <si>
-    <t>Modelos asociados a tipo vehiculo</t>
-  </si>
-  <si>
     <t>Las cocheras tienen un %del total de expensas (0,035 ej) a esto se le asigna el porcentual de expensas
 NOTA: HAY QUE CREAR UN CAMPO PARA QUE INGRESEN EL MONTO TOTAL DE EXPENSAS. SERÍA UN LIQUIDAR EXPENSAS.</t>
   </si>
@@ -221,6 +219,10 @@
   </si>
   <si>
     <t>TASA INTERES DEBERIA ESTAR EN LA DB PARA QUE LA PUEDAN MODIFICAR, HOY ES UN DOUBLE EN CONTROLADOR.</t>
+  </si>
+  <si>
+    <t>Modelos asociados a tipo vehiculo
+Vehiculo tiene categoria y modelo</t>
   </si>
 </sst>
 </file>
@@ -290,6 +292,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -337,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +377,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,17 +925,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -939,7 +946,7 @@
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -948,7 +955,7 @@
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -957,7 +964,7 @@
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
@@ -966,7 +973,7 @@
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
@@ -975,30 +982,32 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
@@ -1009,7 +1018,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -1018,7 +1027,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
@@ -1029,7 +1038,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -1038,14 +1047,14 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>29</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:F17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>No bloquea SelectBox después de cerrar el tkt</t>
-  </si>
-  <si>
-    <t>Por qué Cliente tiene vehiculo? Es para autocompletar en Menu Operador</t>
   </si>
   <si>
     <t>Tickets Abiertos</t>
@@ -223,6 +220,95 @@
   <si>
     <t>Modelos asociados a tipo vehiculo
 Vehiculo tiene categoria y modelo</t>
+  </si>
+  <si>
+    <t>Cochear cochera en alta cliente; dejar en blanco cuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uriburu@fibertel.com.ar 
+listado autos
+listado colores
+listado modelos
+expensas
+Descuentos
+Tarifas
+Encabezado de Ticket
+</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Cliente se pueda modificar pasado los 5 minutos; sin límite de tiempo</t>
+  </si>
+  <si>
+    <t>Movimientos Cuenta Agregar Total</t>
+  </si>
+  <si>
+    <t>Agregar a CLiente tipo de factura: A B o C</t>
+  </si>
+  <si>
+    <t>el alta cliente actualice la carga inicial</t>
+  </si>
+  <si>
+    <t>posibilidad de reactivar cliente</t>
+  </si>
+  <si>
+    <t>minimo cobro es una hora</t>
+  </si>
+  <si>
+    <t>Deudaores Cuando exporta que DIGA EXPENSAS/ALQUILER y Monto y Cochera</t>
+  </si>
+  <si>
+    <t>Agregar checkbox Pago Tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imprimir de Tickets con Pago Tarjeta :Fecha, Numero Ticket, Monto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> al hacer cobrar guarde observacion y descuento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> admin poder limpiar tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> el exedente de minutos sobrantes se cobra como una fraccion (hora y un min= hora y 1 frac)</t>
+  </si>
+  <si>
+    <t>Incluir botón que prepago sea incremental; poder modificar descuento; y resalte descuento si no es del 0% (posiblemente prepago deba ser una Clase nueva)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Alta Ticket</t>
+  </si>
+  <si>
+    <t>Ver MovimientosCC</t>
+  </si>
+  <si>
+    <t>Alta Cliente</t>
+  </si>
+  <si>
+    <t>ABM Cliente</t>
+  </si>
+  <si>
+    <t>Cobro Tickets</t>
+  </si>
+  <si>
+    <t>Interes</t>
+  </si>
+  <si>
+    <t>modificar el dia del mes del interes (Nueva Clase)</t>
+  </si>
+  <si>
+    <t>Ver Tickets Tarjeta</t>
+  </si>
+  <si>
+    <t>en arqueo agregar observacion y numero de ticket y si tuvo descuento</t>
+  </si>
+  <si>
+    <t>Arqueo</t>
   </si>
 </sst>
 </file>
@@ -246,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -269,11 +355,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -282,6 +379,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +767,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,43 +784,222 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -745,10 +1025,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -756,308 +1036,308 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Estacionamiento-Server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5760"/>
   </bookViews>
@@ -15,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -32,9 +36,6 @@
   </si>
   <si>
     <t>DM</t>
-  </si>
-  <si>
-    <t>Falta exportarlo a un excel.</t>
   </si>
   <si>
     <t>Valida Campos, pero clienteActual queda en memoria (hay que revisar para que lo setee o si lo pasamos como parámetro)</t>
@@ -225,20 +226,6 @@
     <t>Cochear cochera en alta cliente; dejar en blanco cuit</t>
   </si>
   <si>
-    <t xml:space="preserve">uriburu@fibertel.com.ar 
-listado autos
-listado colores
-listado modelos
-expensas
-Descuentos
-Tarifas
-Encabezado de Ticket
-</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Cliente se pueda modificar pasado los 5 minutos; sin límite de tiempo</t>
   </si>
   <si>
@@ -254,12 +241,6 @@
     <t>posibilidad de reactivar cliente</t>
   </si>
   <si>
-    <t>minimo cobro es una hora</t>
-  </si>
-  <si>
-    <t>Deudaores Cuando exporta que DIGA EXPENSAS/ALQUILER y Monto y Cochera</t>
-  </si>
-  <si>
     <t>Agregar checkbox Pago Tarjeta</t>
   </si>
   <si>
@@ -272,9 +253,6 @@
     <t xml:space="preserve"> admin poder limpiar tickets</t>
   </si>
   <si>
-    <t xml:space="preserve"> el exedente de minutos sobrantes se cobra como una fraccion (hora y un min= hora y 1 frac)</t>
-  </si>
-  <si>
     <t>Incluir botón que prepago sea incremental; poder modificar descuento; y resalte descuento si no es del 0% (posiblemente prepago deba ser una Clase nueva)</t>
   </si>
   <si>
@@ -296,9 +274,6 @@
     <t>Cobro Tickets</t>
   </si>
   <si>
-    <t>Interes</t>
-  </si>
-  <si>
     <t>modificar el dia del mes del interes (Nueva Clase)</t>
   </si>
   <si>
@@ -309,6 +284,20 @@
   </si>
   <si>
     <t>Arqueo</t>
+  </si>
+  <si>
+    <t>Deudaores Cuando exporta que DIGA EXPENSAS/ALQUILER y Monto y Cochera
+Falta exportarlo a un excel.</t>
+  </si>
+  <si>
+    <t>TasaInteres</t>
+  </si>
+  <si>
+    <t>minimo cobro es una hora
+ el exedente de minutos sobrantes se cobra como una fraccion (hora y un min= hora y 1 frac)</t>
+  </si>
+  <si>
+    <t>Si no hay deudores, revienta la pantalla</t>
   </si>
 </sst>
 </file>
@@ -370,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,10 +368,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,10 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,308 +698,304 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
+      <c r="A8" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>81</v>
+      <c r="A17" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>83</v>
+      <c r="A19" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D25">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1012,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1025,319 +1017,319 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Si no hay deudores, revienta la pantalla</t>
+  </si>
+  <si>
+    <t>dejar en blanco cuit</t>
   </si>
 </sst>
 </file>
@@ -682,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,29 +751,31 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -779,7 +784,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,135 +796,138 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,66 +935,77 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Estacionamiento-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19716" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -253,9 +253,6 @@
     <t xml:space="preserve"> admin poder limpiar tickets</t>
   </si>
   <si>
-    <t>Incluir botón que prepago sea incremental; poder modificar descuento; y resalte descuento si no es del 0% (posiblemente prepago deba ser una Clase nueva)</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -301,6 +298,18 @@
   </si>
   <si>
     <t>dejar en blanco cuit</t>
+  </si>
+  <si>
+    <t>Impresion</t>
+  </si>
+  <si>
+    <t>Agregado direccion y formateado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir botón que prepago sea incremental; poder modificar descuento; </t>
+  </si>
+  <si>
+    <t>resalte descuento si no es del 0%</t>
   </si>
 </sst>
 </file>
@@ -685,21 +694,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,9 +723,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -725,9 +735,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -737,9 +747,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -749,9 +759,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -760,261 +770,294 @@
         <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D25">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1027,14 +1070,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1097,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1150,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1151,7 +1194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1203,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1169,7 +1212,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1178,7 +1221,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1189,7 +1232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1200,14 +1243,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>44</v>
@@ -1216,7 +1259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>59</v>
@@ -1225,7 +1268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>45</v>
@@ -1234,7 +1277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>46</v>
@@ -1243,7 +1286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>47</v>
@@ -1252,7 +1295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -1261,7 +1304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>49</v>
@@ -1270,21 +1313,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>52</v>
@@ -1293,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1304,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1313,7 +1356,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -1324,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1335,14 +1378,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>58</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -241,9 +241,6 @@
     <t>posibilidad de reactivar cliente</t>
   </si>
   <si>
-    <t>Agregar checkbox Pago Tarjeta</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Imprimir de Tickets con Pago Tarjeta :Fecha, Numero Ticket, Monto</t>
   </si>
   <si>
@@ -309,7 +306,10 @@
     <t xml:space="preserve">Incluir botón que prepago sea incremental; poder modificar descuento; </t>
   </si>
   <si>
-    <t>resalte descuento si no es del 0%</t>
+    <t>resalte descuento si no es del 0% - Aparece en el total a cobrar, pintar el combobox no se puede</t>
+  </si>
+  <si>
+    <t>Agregar checkbox Pago Tarjeta  - Poder imprimir listado de tickets pagados ocn tarjeta</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -770,12 +770,12 @@
         <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -798,48 +798,50 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -848,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -887,7 +889,7 @@
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -896,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,7 +941,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -948,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,10 +981,10 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,12 +1008,12 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1022,13 +1024,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,12 +1041,12 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1053,7 +1055,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Agregar checkbox Pago Tarjeta  - Poder imprimir listado de tickets pagados ocn tarjeta</t>
+  </si>
+  <si>
+    <t>MovCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? </t>
+  </si>
+  <si>
+    <t>Cambiar Ticke objeto por idTicket</t>
   </si>
 </sst>
 </file>
@@ -694,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +843,9 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>67</v>
       </c>
@@ -960,7 +971,9 @@
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
@@ -1056,6 +1069,17 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Cambiar Ticke objeto por idTicket</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Ordenar Las listas alfabeticamente</t>
   </si>
 </sst>
 </file>
@@ -703,11 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,6 +1086,17 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Estacionamiento-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19716" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -712,19 +712,19 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -738,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -750,7 +750,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -762,19 +762,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -788,7 +790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -802,7 +804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -816,7 +818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -830,7 +832,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -842,7 +844,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -856,7 +858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -870,7 +872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -884,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -894,7 +896,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
@@ -904,7 +906,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
@@ -918,7 +920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -932,7 +934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -944,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -956,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -970,7 +972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -984,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -995,7 +997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -1030,18 +1032,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>76</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>92</v>
       </c>
@@ -1113,14 +1118,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1145,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1198,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1246,7 +1251,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1260,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1264,7 +1269,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1275,7 +1280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1286,14 +1291,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>44</v>
@@ -1302,7 +1307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>59</v>
@@ -1311,7 +1316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>45</v>
@@ -1320,7 +1325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>46</v>
@@ -1329,7 +1334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>47</v>
@@ -1338,7 +1343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -1347,7 +1352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>49</v>
@@ -1356,21 +1361,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>52</v>
@@ -1379,7 +1384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1390,7 +1395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1404,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1421,14 +1426,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>58</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Gestión de Usuario</t>
-  </si>
-  <si>
-    <t>falla en búsqueda, cuando los campos están en blanco</t>
   </si>
   <si>
     <t>Crear Gestión Descuento</t>
@@ -326,13 +323,46 @@
   <si>
     <t>Ordenar Las listas alfabeticamente</t>
   </si>
+  <si>
+    <t>Buscar Cliente</t>
+  </si>
+  <si>
+    <t>Falla cuando buscas un Cliente y el campo de búsqueda está en blanco. Lo voy a solucionar en gestion Usuario (DM), que si el campo ingresado está en blanco, no haga el CLEAR sino que vuelva a instanciar la lsita y traiga todos los Usuarios (debería aplicar el mismo concepto para Cliente y todas las búsquedas de ese tipo).</t>
+  </si>
+  <si>
+    <t>En lugar del clear() vuelvo a instanciar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">falla en búsqueda, cuando los campos están en blanco y tengo un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario seleccionado</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -386,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -405,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,141 +766,141 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -908,71 +939,78 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -980,35 +1018,35 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -1029,35 +1067,35 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -1065,48 +1103,60 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1114,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,10 +1177,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -1138,308 +1188,308 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -306,9 +306,6 @@
     <t>resalte descuento si no es del 0% - Aparece en el total a cobrar, pintar el combobox no se puede</t>
   </si>
   <si>
-    <t>Agregar checkbox Pago Tarjeta  - Poder imprimir listado de tickets pagados ocn tarjeta</t>
-  </si>
-  <si>
     <t>MovCC</t>
   </si>
   <si>
@@ -346,6 +343,24 @@
         <scheme val="minor"/>
       </rPr>
       <t>Usuario seleccionado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agregar checkbox Pago Tarjeta  - Poder imprimir listado de tickets pagados ocn tarjeta
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MovimientoCC tiene un enum "medioPago" con los converter.
+leer comentario en CONTROLADOR COBRARTICKET</t>
     </r>
   </si>
 </sst>
@@ -416,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -425,17 +440,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,8 +783,8 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,403 +795,440 @@
     <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="E31" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -783,8 +783,8 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,9 @@
       <c r="B24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="D24" s="15" t="s">
         <v>78</v>
       </c>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -229,13 +229,7 @@
     <t>Movimientos Cuenta Agregar Total</t>
   </si>
   <si>
-    <t>Agregar a CLiente tipo de factura: A B o C</t>
-  </si>
-  <si>
     <t>el alta cliente actualice la carga inicial</t>
-  </si>
-  <si>
-    <t>posibilidad de reactivar cliente</t>
   </si>
   <si>
     <t xml:space="preserve"> Imprimir de Tickets con Pago Tarjeta :Fecha, Numero Ticket, Monto</t>
@@ -354,7 +348,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -363,12 +357,46 @@
 leer comentario en CONTROLADOR COBRARTICKET</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agregar a CLiente tipo de factura: A B o C.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PENDIENTE VALIDAR CUIT CON FACTURA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">posibilidad de reactivar cliente.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pendiente por el ABM de Cliente</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +408,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -475,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,8 +822,8 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,35 +849,37 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -853,7 +894,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -862,13 +903,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -883,7 +924,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -892,13 +933,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
@@ -907,26 +948,26 @@
         <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
@@ -935,13 +976,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1</v>
@@ -950,7 +991,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -993,7 +1034,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -1002,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -1047,15 +1088,15 @@
         <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
@@ -1064,7 +1105,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1092,7 +1133,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -1101,11 +1142,11 @@
         <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -1133,13 +1174,13 @@
         <v>26</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -1154,14 +1195,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -1174,13 +1215,13 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
@@ -1189,46 +1230,46 @@
         <v>26</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" s="5"/>
     </row>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>TODO</t>
-  </si>
-  <si>
-    <t>Ordenar Las listas alfabeticamente</t>
   </si>
   <si>
     <t>Buscar Cliente</t>
@@ -389,6 +386,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>Pendiente por el ABM de Cliente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ordenar Las listas alfabeticamente.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se creó una función custom.</t>
     </r>
   </si>
 </sst>
@@ -822,8 +836,8 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +872,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -873,7 +887,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -961,7 +975,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1088,10 +1102,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,29 +1261,31 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D30" s="13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="5"/>
     </row>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Estacionamiento-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19716" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -373,23 +373,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">posibilidad de reactivar cliente.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pendiente por el ABM de Cliente</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Ordenar Las listas alfabeticamente.
 </t>
     </r>
@@ -405,12 +388,37 @@
       <t>Se creó una función custom.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">posibilidad de reactivar cliente.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pendiente por el ABM de Cliente</t>
+    </r>
+  </si>
+  <si>
+    <t>Alta cochera</t>
+  </si>
+  <si>
+    <t>Que la cochera no tenga monto mensual y % expensas al mismo tiempo</t>
+  </si>
+  <si>
+    <t>Realizado / falta lo rojo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +438,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -528,6 +549,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,22 +860,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -863,20 +890,22 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7" t="s">
-        <v>95</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
@@ -884,14 +913,14 @@
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
@@ -906,7 +935,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -921,7 +950,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -936,7 +965,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
@@ -951,7 +980,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -966,7 +995,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -979,7 +1008,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -994,7 +1023,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
@@ -1009,7 +1038,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1024,29 +1053,33 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
@@ -1061,7 +1094,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1109,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1124,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
@@ -1123,7 +1156,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1171,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -1151,7 +1184,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
@@ -1164,7 +1197,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1210,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1225,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>68</v>
       </c>
@@ -1207,7 +1240,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>73</v>
       </c>
@@ -1220,7 +1253,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1266,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>81</v>
       </c>
@@ -1248,7 +1281,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>85</v>
       </c>
@@ -1261,7 +1294,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>88</v>
       </c>
@@ -1272,22 +1305,35 @@
         <v>26</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="13" t="s">
         <v>90</v>
       </c>
       <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -1304,14 +1350,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1322,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1377,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1342,7 +1388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1430,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1417,7 +1463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1428,7 +1474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1437,7 +1483,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1446,7 +1492,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1455,7 +1501,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1466,7 +1512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1477,14 +1523,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>43</v>
@@ -1493,7 +1539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>58</v>
@@ -1502,7 +1548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>44</v>
@@ -1511,7 +1557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -1520,7 +1566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -1529,7 +1575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>47</v>
@@ -1538,7 +1584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>48</v>
@@ -1547,21 +1593,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>51</v>
@@ -1570,7 +1616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1581,7 +1627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1590,7 +1636,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1601,7 +1647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1612,14 +1658,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>57</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19716" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -20,11 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -412,6 +408,30 @@
   </si>
   <si>
     <t>Realizado / falta lo rojo</t>
+  </si>
+  <si>
+    <t>DI de alta un usuario, con cochera, persona autorizada y vehiculo. Cuando llamé a buscar Cliente, no muestra esos campos correctamente.
+Paralelamente, cuando quiero modificar un cliente, me manda a buscarCliente, cuando cierro con la cruz esa ventana, me lleva a Modificar clientge y marcó como seleccionado (a pesar de cerrar la ventana)</t>
+  </si>
+  <si>
+    <t>EstadoCrediticio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Limitar cantidad de campos que devuelve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incluí Math.round también en buscadorcliente</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -860,22 +880,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -890,7 +910,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -905,7 +925,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
@@ -920,7 +940,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
@@ -935,7 +955,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -950,7 +970,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -965,7 +985,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
@@ -980,7 +1000,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -995,7 +1015,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1008,7 +1028,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -1023,7 +1043,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
@@ -1038,7 +1058,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1073,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1086,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1099,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
@@ -1094,7 +1114,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1129,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1144,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
@@ -1156,7 +1176,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1191,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -1184,7 +1204,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
@@ -1197,7 +1217,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1230,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1245,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>68</v>
       </c>
@@ -1240,7 +1260,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>73</v>
       </c>
@@ -1253,7 +1273,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1286,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>81</v>
       </c>
@@ -1281,7 +1301,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>85</v>
       </c>
@@ -1294,7 +1314,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>88</v>
       </c>
@@ -1309,7 +1329,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>89</v>
       </c>
@@ -1324,7 +1344,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>97</v>
       </c>
@@ -1333,6 +1353,31 @@
       </c>
       <c r="D32" s="18" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1350,14 +1395,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1422,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1388,7 +1433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1430,7 +1475,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1452,7 +1497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1474,7 +1519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1483,7 +1528,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1537,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1501,7 +1546,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1512,7 +1557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1523,14 +1568,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>43</v>
@@ -1539,7 +1584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>58</v>
@@ -1557,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -1566,7 +1611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -1575,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>47</v>
@@ -1584,7 +1629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>48</v>
@@ -1593,21 +1638,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>51</v>
@@ -1616,7 +1661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1627,7 +1672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1636,7 +1681,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1647,7 +1692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1658,14 +1703,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>57</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Estacionamiento-Server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6090"/>
   </bookViews>
@@ -15,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -300,9 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">? </t>
-  </si>
-  <si>
-    <t>Cambiar Ticke objeto por idTicket</t>
   </si>
   <si>
     <t>TODO</t>
@@ -432,6 +433,21 @@
       </rPr>
       <t>Incluí Math.round también en buscadorcliente</t>
     </r>
+  </si>
+  <si>
+    <t>Tenemos que poder Ver Cochera, Vehiculo y Persona Autorizada</t>
+  </si>
+  <si>
+    <t>Modificar Cliente</t>
+  </si>
+  <si>
+    <t>Poder modificar cochera, vehiculo y persona autorizada</t>
+  </si>
+  <si>
+    <t>Si Estado Crediticio &lt; 0 Rojo, sino verde.</t>
+  </si>
+  <si>
+    <t>Cambiar Ticket objeto por idTicket</t>
   </si>
 </sst>
 </file>
@@ -880,11 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +937,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -933,10 +949,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1024,7 +1040,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1155,10 +1171,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,13 +1326,13 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
@@ -1325,50 +1341,50 @@
         <v>26</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>3</v>
@@ -1377,7 +1393,40 @@
         <v>26</v>
       </c>
       <c r="D34" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1568,14 +1617,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>43</v>
@@ -1584,7 +1633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>58</v>
@@ -1593,7 +1642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>44</v>
@@ -1602,7 +1651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -1611,7 +1660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -1620,7 +1669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>47</v>
@@ -1629,7 +1678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>48</v>
@@ -1638,21 +1687,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>51</v>
@@ -1661,7 +1710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1672,7 +1721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1681,7 +1730,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1692,7 +1741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1703,14 +1752,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>57</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>Cambiar Ticket objeto por idTicket</t>
+  </si>
+  <si>
+    <t>Cobro Ticket/Arqueo</t>
+  </si>
+  <si>
+    <t>Hay que probar bien asignación de Descuentos porque no me lo asignó en un par de tkts</t>
   </si>
 </sst>
 </file>
@@ -896,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,6 +1433,17 @@
       </c>
       <c r="D37" s="18" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -450,10 +450,10 @@
     <t>Cambiar Ticket objeto por idTicket</t>
   </si>
   <si>
-    <t>Cobro Ticket/Arqueo</t>
-  </si>
-  <si>
-    <t>Hay que probar bien asignación de Descuentos porque no me lo asignó en un par de tkts</t>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>Falta un About</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,9 +1218,11 @@
         <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D21" s="13" t="s">
         <v>62</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
@@ -1437,14 +1439,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>108</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D38" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="109">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -902,11 +902,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +933,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -947,7 +948,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
@@ -962,7 +963,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
@@ -977,7 +978,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -992,7 +993,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -1007,7 +1008,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1022,7 +1023,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -1050,7 +1051,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -1065,7 +1066,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
@@ -1080,7 +1081,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1096,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1109,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1122,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
@@ -1136,7 +1137,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1152,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1167,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
@@ -1198,7 +1199,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1214,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -1254,7 +1255,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1270,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>68</v>
       </c>
@@ -1310,7 +1311,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>81</v>
       </c>
@@ -1338,7 +1339,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>87</v>
       </c>
@@ -1353,7 +1354,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>88</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>100</v>
       </c>
@@ -1433,6 +1434,9 @@
       <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
       <c r="D37" s="18" t="s">
         <v>105</v>
       </c>
@@ -1447,7 +1451,11 @@
       <c r="D38" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D38">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -906,8 +906,8 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>88</v>
       </c>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Tickets Abiertos</t>
-  </si>
-  <si>
-    <t>Pendiente impresión del listado (Requerimiento)</t>
   </si>
   <si>
     <t>Ticket prepago no incluido en arqueo. Ahora se ve, pero mal escrito</t>
@@ -453,7 +450,27 @@
     <t>rp</t>
   </si>
   <si>
-    <t>Falta un About</t>
+    <t>Ventanas confirmacion</t>
+  </si>
+  <si>
+    <t>Faltan ventanas de confirmación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pendiente impresión del listado (Requerimiento).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ya lo tenes armado, queda mandarlo a la impresora</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -905,9 +922,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,155 +946,155 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1089,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1104,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
@@ -1117,38 +1134,38 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -1160,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>4</v>
@@ -1169,33 +1186,33 @@
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1207,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>12</v>
@@ -1216,42 +1233,42 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>14</v>
+      <c r="D23" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1263,38 +1280,38 @@
         <v>3</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -1307,151 +1324,153 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D38">
+  <autoFilter ref="A1:D37">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -1478,10 +1497,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -1489,308 +1508,308 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -923,8 +923,8 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1309,9 @@
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="13" t="s">
         <v>62</v>
       </c>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Estacionamiento-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15612" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="114">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -471,6 +471,18 @@
       </rPr>
       <t>Ya lo tenes armado, queda mandarlo a la impresora</t>
     </r>
+  </si>
+  <si>
+    <t>Poder pagar Cobro extraordinario con tarjeta</t>
+  </si>
+  <si>
+    <t>Cobro extraordinario</t>
+  </si>
+  <si>
+    <t>Piso en cocheras no se guarda, para que esta? Cochera tiene ESTADO que no se usa.</t>
+  </si>
+  <si>
+    <t>Cochera</t>
   </si>
 </sst>
 </file>
@@ -920,22 +932,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -950,7 +962,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
@@ -965,7 +977,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
@@ -980,7 +992,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -995,7 +1007,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
@@ -1010,7 +1022,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1025,7 +1037,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1040,7 +1052,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1055,20 +1067,22 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -1083,7 +1097,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
@@ -1098,7 +1112,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1113,7 +1127,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1140,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1153,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>70</v>
       </c>
@@ -1154,7 +1168,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1183,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1198,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1215,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
@@ -1216,7 +1230,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1245,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -1246,7 +1260,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1259,7 +1273,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1286,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1301,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -1302,7 +1316,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>72</v>
       </c>
@@ -1317,7 +1331,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1344,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>80</v>
       </c>
@@ -1345,7 +1359,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>84</v>
       </c>
@@ -1358,7 +1372,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>86</v>
       </c>
@@ -1373,7 +1387,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>87</v>
       </c>
@@ -1388,29 +1402,35 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
       <c r="D32" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>99</v>
       </c>
@@ -1424,29 +1444,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
       <c r="D35" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
       <c r="D36" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>87</v>
       </c>
@@ -1460,7 +1486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>107</v>
       </c>
@@ -1469,6 +1495,28 @@
       </c>
       <c r="D38" s="18" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1490,14 +1538,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1508,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1565,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1528,7 +1576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1561,7 +1609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1570,7 +1618,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +1629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1671,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1632,7 +1680,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1689,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1663,14 +1711,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -1679,7 +1727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>57</v>
@@ -1688,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -1697,7 +1745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1706,7 +1754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>45</v>
@@ -1715,7 +1763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>46</v>
@@ -1724,7 +1772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
@@ -1733,21 +1781,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>50</v>
@@ -1756,7 +1804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1767,7 +1815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1776,7 +1824,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1787,7 +1835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1798,14 +1846,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>56</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\workspace\Estacionamiento-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15612" windowHeight="6096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$40</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -473,9 +473,6 @@
     </r>
   </si>
   <si>
-    <t>Poder pagar Cobro extraordinario con tarjeta</t>
-  </si>
-  <si>
     <t>Cobro extraordinario</t>
   </si>
   <si>
@@ -483,6 +480,23 @@
   </si>
   <si>
     <t>Cochera</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poder pagar Cobro extraordinario con tarjeta? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estaba definido tickets, no otros tipos de pagos</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -936,18 +950,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -962,7 +976,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
@@ -977,7 +991,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
@@ -992,7 +1006,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -1007,7 +1021,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
@@ -1022,7 +1036,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1037,7 +1051,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1052,7 +1066,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1067,7 +1081,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1082,7 +1096,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -1097,7 +1111,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
@@ -1112,7 +1126,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1141,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1154,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1153,7 +1167,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>70</v>
       </c>
@@ -1168,7 +1182,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1197,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1212,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1229,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
@@ -1230,7 +1244,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1259,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -1260,7 +1274,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1287,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1300,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1315,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -1316,7 +1330,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>72</v>
       </c>
@@ -1331,20 +1345,22 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>80</v>
       </c>
@@ -1359,7 +1375,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>84</v>
       </c>
@@ -1372,7 +1388,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>86</v>
       </c>
@@ -1387,7 +1403,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>87</v>
       </c>
@@ -1402,7 +1418,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>95</v>
       </c>
@@ -1416,7 +1432,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>87</v>
       </c>
@@ -1430,7 +1446,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>99</v>
       </c>
@@ -1444,7 +1460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>87</v>
       </c>
@@ -1458,7 +1474,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>102</v>
       </c>
@@ -1472,7 +1488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>87</v>
       </c>
@@ -1486,7 +1502,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>107</v>
       </c>
@@ -1497,30 +1513,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
       <c r="D40" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D37">
+  <autoFilter ref="A1:D40">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -1538,14 +1557,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1584,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1576,7 +1595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1637,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1629,7 +1648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1651,7 +1670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1662,7 +1681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1671,7 +1690,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1680,7 +1699,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1689,7 +1708,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1700,7 +1719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1711,14 +1730,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -1727,7 +1746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>57</v>
@@ -1736,7 +1755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -1745,7 +1764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1754,7 +1773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>45</v>
@@ -1763,7 +1782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>46</v>
@@ -1772,7 +1791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
@@ -1781,21 +1800,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>50</v>
@@ -1804,7 +1823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1815,7 +1834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1824,7 +1843,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1835,7 +1854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1846,14 +1865,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>56</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -456,23 +456,6 @@
     <t>Faltan ventanas de confirmación</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pendiente impresión del listado (Requerimiento).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ya lo tenes armado, queda mandarlo a la impresora</t>
-    </r>
-  </si>
-  <si>
     <t>Cobro extraordinario</t>
   </si>
   <si>
@@ -497,6 +480,9 @@
       </rPr>
       <t>Estaba definido tickets, no otros tipos de pagos</t>
     </r>
+  </si>
+  <si>
+    <t>Pendiente impresión del listado (Requerimiento).</t>
   </si>
 </sst>
 </file>
@@ -950,7 +936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1273,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1282,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1515,18 +1501,18 @@
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>3</v>
@@ -1535,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -936,7 +936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,6 +1494,9 @@
       </c>
       <c r="B38" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>108</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -456,33 +456,34 @@
     <t>Faltan ventanas de confirmación</t>
   </si>
   <si>
-    <t>Cobro extraordinario</t>
-  </si>
-  <si>
     <t>Piso en cocheras no se guarda, para que esta? Cochera tiene ESTADO que no se usa.</t>
   </si>
   <si>
     <t>Cochera</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Poder pagar Cobro extraordinario con tarjeta? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estaba definido tickets, no otros tipos de pagos</t>
-    </r>
-  </si>
-  <si>
     <t>Pendiente impresión del listado (Requerimiento).</t>
+  </si>
+  <si>
+    <t>Cambio Clave</t>
+  </si>
+  <si>
+    <t>No hace dispose</t>
+  </si>
+  <si>
+    <t>No confirma el cambio</t>
+  </si>
+  <si>
+    <t>Baja Usuarios</t>
+  </si>
+  <si>
+    <t>Deberíamos poder dar de baja usuarios o deshabilitar?</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Que el usuario no sea caseSensitive</t>
   </si>
 </sst>
 </file>
@@ -932,11 +933,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1283,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1502,33 +1503,66 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
       <c r="D39" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
       <c r="D40" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D40">
+  <autoFilter ref="A1:D39">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="121">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Que el usuario no sea caseSensitive</t>
+  </si>
+  <si>
+    <t>Tabla Datos Cliente</t>
+  </si>
+  <si>
+    <t>Crear tabla con un registor con los datos del Cliente para Imprimir (Dirección, Nombre, Etc)</t>
   </si>
 </sst>
 </file>
@@ -933,11 +939,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,6 +1565,17 @@
       </c>
       <c r="D43" s="18" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$45</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="135">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -490,6 +490,79 @@
   </si>
   <si>
     <t>Crear tabla con un registor con los datos del Cliente para Imprimir (Dirección, Nombre, Etc)</t>
+  </si>
+  <si>
+    <t>Que el cursor – entre operaciones – se ponga en Patente.</t>
+  </si>
+  <si>
+    <t>Que el cursor pase de Cod. Ticket a Categoría sin pasar por Limpiar Campos.
+Es decir, que entre operaciones - registro de un auto que ingresa o cobro de un ticket – 
+no haya que pasar por limpiar campos sino que el cursor esté en Patente.</t>
+  </si>
+  <si>
+    <t>Se podrá adelantar el cursor con la tecla Enter?</t>
+  </si>
+  <si>
+    <t>Podrán cambiar a hora 24 hs y no AM PM en la pantalla y que se vea más grande?</t>
+  </si>
+  <si>
+    <t>Necesito que cuando un cliente me pregunte ¿Cuánto tiempo estuve, me marque  - por 
+ejemplo – 2 hs y 34 minutos. O solamente los minutos y no “tiempo mínimo.”</t>
+  </si>
+  <si>
+    <t>Pago a cuenta no se puede modificar aún sin haber confirmado el ticket.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las bicicletas: debe quedar fijo en $6 ya que es el precio máximo que puedo cobrarles por día. Se podrá?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modificando la tabla tarifaria?</t>
+    </r>
+  </si>
+  <si>
+    <t>Se podrá vincular la tecla Esc en vez de F6 para Limpiar Campos?</t>
+  </si>
+  <si>
+    <t>No puedo cargar propietarios: pongo porcentaje, ubicación y no pongo nada en costo
+mensual y me aparece que algunos de los campos ingresados no son válidos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No puedo borrar colores. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se modifica, no se borran.</t>
+    </r>
+  </si>
+  <si>
+    <t>Colores</t>
+  </si>
+  <si>
+    <t>Agregar Cochera</t>
+  </si>
+  <si>
+    <t>Ver orden de la pantalla</t>
+  </si>
+  <si>
+    <t>Imprimir en impresora serie</t>
   </si>
 </sst>
 </file>
@@ -939,11 +1012,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1411,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1568,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>107</v>
       </c>
@@ -1509,7 +1582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>110</v>
       </c>
@@ -1578,8 +1651,140 @@
         <v>120</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D39">
+  <autoFilter ref="A1:D45">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -1015,8 +1015,8 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,6 +1603,9 @@
       <c r="B40" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
       <c r="D40" s="18" t="s">
         <v>113</v>
       </c>
@@ -1635,6 +1638,9 @@
       </c>
       <c r="B43" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>118</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -510,9 +510,6 @@
 ejemplo – 2 hs y 34 minutos. O solamente los minutos y no “tiempo mínimo.”</t>
   </si>
   <si>
-    <t>Pago a cuenta no se puede modificar aún sin haber confirmado el ticket.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Las bicicletas: debe quedar fijo en $6 ya que es el precio máximo que puedo cobrarles por día. Se podrá?
 </t>
@@ -563,6 +560,23 @@
   </si>
   <si>
     <t>Imprimir en impresora serie</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pago a cuenta no se puede modificar aún sin haber confirmado el ticket.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Por un tema de diseño, el ticket debe existir primero.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1015,8 +1029,8 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,6 +1631,9 @@
       <c r="B41" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
       <c r="D41" s="18" t="s">
         <v>114</v>
       </c>
@@ -1628,6 +1645,9 @@
       <c r="B42" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
       <c r="D42" s="18" t="s">
         <v>116</v>
       </c>
@@ -1675,6 +1695,9 @@
       <c r="B46" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>122</v>
       </c>
@@ -1686,6 +1709,9 @@
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
       <c r="D47" t="s">
         <v>123</v>
       </c>
@@ -1697,6 +1723,9 @@
       <c r="B48" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
       <c r="D48" t="s">
         <v>124</v>
       </c>
@@ -1708,19 +1737,22 @@
       <c r="B49" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
-        <v>126</v>
+      <c r="D50" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1731,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,30 +1773,36 @@
       <c r="B52" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,8 +1812,11 @@
       <c r="B55" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$58</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="136">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve"> al hacer cobrar guarde observacion y descuento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> admin poder limpiar tickets</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Alta Ticket</t>
@@ -577,6 +571,15 @@
       </rPr>
       <t>Por un tema de diseño, el ticket debe existir primero.</t>
     </r>
+  </si>
+  <si>
+    <t>Imprimir cobro Extraordinario</t>
+  </si>
+  <si>
+    <t>Menos espacio tickets</t>
+  </si>
+  <si>
+    <t>Limpieza tickets viejos</t>
   </si>
 </sst>
 </file>
@@ -1026,11 +1029,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1067,28 +1070,28 @@
         <v>25</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1112,13 +1115,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -1133,7 +1136,7 @@
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -1142,13 +1145,13 @@
         <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
@@ -1157,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
@@ -1172,13 +1175,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1</v>
@@ -1202,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -1258,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -1303,15 +1306,15 @@
         <v>25</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
@@ -1320,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1344,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>25</v>
@@ -1359,11 +1362,11 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1391,13 +1394,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
@@ -1436,13 +1439,13 @@
         <v>25</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
@@ -1451,26 +1454,26 @@
         <v>25</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
@@ -1479,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>1</v>
@@ -1494,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
@@ -1509,12 +1512,12 @@
         <v>25</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>1</v>
@@ -1523,12 +1526,12 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>3</v>
@@ -1537,12 +1540,12 @@
         <v>25</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -1551,12 +1554,12 @@
         <v>25</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>1</v>
@@ -1565,12 +1568,12 @@
         <v>25</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>3</v>
@@ -1579,12 +1582,12 @@
         <v>25</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>3</v>
@@ -1593,88 +1596,88 @@
         <v>25</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="B40" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="18" t="s">
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="18" t="s">
+      <c r="B42" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="18" t="s">
+      <c r="B43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,10 +1688,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1699,10 +1702,10 @@
         <v>25</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -1713,10 +1716,10 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1727,10 +1730,10 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1752,21 +1755,24 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -1777,24 +1783,27 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
+    <row r="54" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="B54" s="14" t="s">
         <v>3</v>
       </c>
@@ -1802,10 +1811,10 @@
         <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,11 +1836,30 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>133</v>
       </c>
+      <c r="B57" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D45">
+  <autoFilter ref="A1:D58">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -1033,7 +1033,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,14 +1357,16 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="13" t="s">
         <v>135</v>
       </c>
@@ -1839,12 +1841,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="142">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -580,6 +580,24 @@
   </si>
   <si>
     <t>Limpieza tickets viejos</t>
+  </si>
+  <si>
+    <t>buscar cliente defecto apellido</t>
+  </si>
+  <si>
+    <t>particular inquilino por defecto.</t>
+  </si>
+  <si>
+    <t>observacion a cobro extraordinario</t>
+  </si>
+  <si>
+    <t>condición de color cuándo está pagado</t>
+  </si>
+  <si>
+    <t>Saltear Descuento</t>
+  </si>
+  <si>
+    <t>Revisión Redondeo</t>
   </si>
 </sst>
 </file>
@@ -1029,16 +1047,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
@@ -1756,6 +1774,9 @@
       <c r="B50" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>132</v>
       </c>
@@ -1859,9 +1880,66 @@
       <c r="B58" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D58">

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="149">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -591,13 +591,34 @@
     <t>observacion a cobro extraordinario</t>
   </si>
   <si>
-    <t>condición de color cuándo está pagado</t>
-  </si>
-  <si>
     <t>Saltear Descuento</t>
   </si>
   <si>
     <t>Revisión Redondeo</t>
+  </si>
+  <si>
+    <t>condición de color cuándo tkt está pago</t>
+  </si>
+  <si>
+    <t>Exportar liquidacion a excel</t>
+  </si>
+  <si>
+    <t>Revisar redondeo de numeros y conversion a numerico en lugar de string.</t>
+  </si>
+  <si>
+    <t>Emitir liquidacion</t>
+  </si>
+  <si>
+    <t>Revisar el redondeo de la liquidacion de expensas a 3 decimales.</t>
+  </si>
+  <si>
+    <t>Emitir liquidacion expensas</t>
+  </si>
+  <si>
+    <t>Optimizacion de Liquidaciones</t>
+  </si>
+  <si>
+    <t>No incluir clientes inquilinos</t>
   </si>
 </sst>
 </file>
@@ -1047,11 +1068,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62:C64"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +1940,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>3</v>
@@ -1927,7 +1948,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>1</v>
@@ -1935,10 +1956,66 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="150">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>No incluir clientes inquilinos</t>
+  </si>
+  <si>
+    <t>Incluido clientes Activos y Filtro por TipoCliente según liquidación a emitir.</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1075,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,6 +1948,9 @@
       <c r="B62" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2016,6 +2022,9 @@
       </c>
       <c r="C68" t="s">
         <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$68</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -622,6 +622,9 @@
   </si>
   <si>
     <t>Incluido clientes Activos y Filtro por TipoCliente según liquidación a emitir.</t>
+  </si>
+  <si>
+    <t>Eliminar Cliente del Sistema.</t>
   </si>
 </sst>
 </file>
@@ -1071,11 +1074,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1879,9 +1882,7 @@
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="B56" s="14"/>
       <c r="D56" t="s">
         <v>131</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>134</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>136</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -2027,8 +2028,16 @@
         <v>149</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D58">
+  <autoFilter ref="A1:D68">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="152">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>Eliminar Cliente del Sistema.</t>
+  </si>
+  <si>
+    <t>Corrección listado cocheras</t>
   </si>
 </sst>
 </file>
@@ -1074,11 +1077,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,6 +2037,14 @@
       </c>
       <c r="B69" s="14" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>Corrección listado cocheras</t>
+  </si>
+  <si>
+    <t>Se agregó el estado "BORRADO" al sistema.</t>
   </si>
 </sst>
 </file>
@@ -2038,6 +2041,12 @@
       <c r="B69" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="154">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Se agregó el estado "BORRADO" al sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incrementar monto Alquileres </t>
   </si>
 </sst>
 </file>
@@ -1080,11 +1083,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,6 +2057,17 @@
       </c>
       <c r="B70" s="14" t="s">
         <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -1087,7 +1087,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,6 +1892,9 @@
         <v>11</v>
       </c>
       <c r="B56" s="14"/>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
       <c r="D56" t="s">
         <v>131</v>
       </c>
@@ -2068,6 +2071,9 @@
       </c>
       <c r="B71" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$79</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="168">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -635,12 +635,146 @@
   <si>
     <t xml:space="preserve">Incrementar monto Alquileres </t>
   </si>
+  <si>
+    <r>
+      <t>Podrá aparecer predeterminado el monto adeudado en el recibo? (no tener que recordar el importe leido en pantalla anterior y casi siempre lo que paga es el total. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Se incluirá un campo con el monto adeudado en el recibo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Podrá aparecer el nombre del Cliente que pagó en el arqueo de caja? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Se incluirá un campo con el nombre del Cliente que abonó un Cobro de Expensa o Alquiler.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Si está cargado como propietario, podrá aparecer predeterminado "Expensas" y si Inquilino "Alquiler"? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Se incluirá la lógica para que defina si corresponde alquiler o expensas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>En "Ver Cuenta Corriente" podrá aparecer desde principio de mes predeterminado? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Se ordenarán por fecha de creación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Se podrá eliminar la última confirmación de cobro mensual o expensa? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Se eliminará la solicitud de confirmación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Las impresoras están configuradas invertidas (Interna X Externa). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Se corregirá el órden de aparición de las impresoras.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Se podrá acceder a un arqueo de caja general, que incluya a todos los operadores?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Se incluirá la posibilidad de realizar el arqueo para todos los operadores que hayan trabajado en el rango de fecha definido.</t>
+    </r>
+  </si>
+  <si>
+    <t>En el programa de la oficina elijo "no imprimir" e imprime igual.</t>
+  </si>
+  <si>
+    <t>Cobro Extraordinario</t>
+  </si>
+  <si>
+    <t>Arqueo Caja</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente</t>
+  </si>
+  <si>
+    <t>Impresoras</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Registrar fecha de alta y mostrarla en pantalla.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +810,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -724,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -776,6 +942,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,11 +1258,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,7 +2062,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
@@ -1966,11 +2141,14 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2040,7 +2218,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>150</v>
       </c>
@@ -2054,7 +2232,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>151</v>
       </c>
@@ -2065,7 +2243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>153</v>
       </c>
@@ -2076,8 +2254,116 @@
         <v>25</v>
       </c>
     </row>
+    <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D68">
+  <autoFilter ref="A1:D79">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="168">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -1262,7 +1262,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2298,10 @@
         <v>164</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>157</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\workspace\Estacionamiento-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15612" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="168">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Tabla Datos Cliente</t>
   </si>
   <si>
-    <t>Crear tabla con un registor con los datos del Cliente para Imprimir (Dirección, Nombre, Etc)</t>
-  </si>
-  <si>
     <t>Que el cursor – entre operaciones – se ponga en Patente.</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>Registrar fecha de alta y mostrarla en pantalla.</t>
+  </si>
+  <si>
+    <t>Crear tabla con un registro con los datos del Cliente para Imprimir (Dirección, Nombre, Etc)</t>
   </si>
 </sst>
 </file>
@@ -1261,19 +1261,19 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1597,11 +1597,11 @@
         <v>25</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>65</v>
       </c>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>70</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>78</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>82</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>84</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>85</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>93</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>85</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>97</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>85</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>100</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>85</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>105</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>108</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>110</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>100</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>113</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>115</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>117</v>
       </c>
@@ -1908,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1919,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1933,10 +1933,10 @@
         <v>25</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -1947,10 +1947,10 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1961,10 +1961,10 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1975,10 +1975,10 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1989,10 +1989,10 @@
         <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -2003,10 +2003,10 @@
         <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -2017,38 +2017,38 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>11</v>
       </c>
@@ -2059,10 +2059,10 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
@@ -2071,24 +2071,24 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="B58" s="14" t="s">
         <v>1</v>
       </c>
@@ -2096,32 +2096,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>138</v>
-      </c>
       <c r="B61" s="14" t="s">
         <v>3</v>
       </c>
@@ -2129,9 +2129,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>3</v>
@@ -2140,7 +2140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -2148,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>140</v>
-      </c>
       <c r="B64" s="14" t="s">
         <v>3</v>
       </c>
@@ -2162,207 +2162,216 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B68" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" t="s">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="B69" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="B70" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="B71" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="19" t="s">
+      <c r="B73" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="74" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="B75" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="B78" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="B79" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="B80" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2380,18 +2389,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2411,7 +2420,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2455,7 +2464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2464,7 +2473,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2475,7 +2484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -2517,7 +2526,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2526,7 +2535,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2535,7 +2544,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2557,14 +2566,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -2573,7 +2582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>57</v>
@@ -2582,7 +2591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -2591,7 +2600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -2600,7 +2609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>45</v>
@@ -2609,7 +2618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>46</v>
@@ -2618,7 +2627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
@@ -2627,21 +2636,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>50</v>
@@ -2650,7 +2659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -2670,7 +2679,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -2681,7 +2690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2692,14 +2701,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>56</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="168">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -1262,7 +1262,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2146,6 +2146,9 @@
       </c>
       <c r="B63" s="14" t="s">
         <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
       </c>
       <c r="D63" t="s">
         <v>138</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPERALT\workspace\Estacionamiento-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\workspace\Estacionamiento-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15612" windowHeight="6096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="168">
   <si>
     <t>Cliente ABM</t>
   </si>
@@ -1262,18 +1262,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="111.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="111.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>65</v>
       </c>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>70</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>78</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>82</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>84</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>85</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>93</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>85</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>97</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>85</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>100</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>85</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>105</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>108</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>110</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>100</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>113</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>115</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>117</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>127</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>128</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>11</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>132</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>135</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>149</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>150</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>152</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>161</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>162</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>161</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>163</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>161</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>164</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>162</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>164</v>
       </c>
@@ -2366,12 +2366,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>166</v>
@@ -2396,14 +2399,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2423,7 +2426,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2479,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -2529,7 +2532,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2538,7 +2541,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2569,14 +2572,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -2585,7 +2588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>57</v>
@@ -2594,7 +2597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -2603,7 +2606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -2612,7 +2615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>45</v>
@@ -2621,7 +2624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>46</v>
@@ -2630,7 +2633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
@@ -2639,21 +2642,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>50</v>
@@ -2662,7 +2665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -2682,7 +2685,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2704,14 +2707,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>56</v>

--- a/Estacionamiento-Server/Requerimientos.xlsx
+++ b/Estacionamiento-Server/Requerimientos.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requerimientos!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$D$80</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1257,12 +1257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1287,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
@@ -1303,7 +1302,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1317,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1333,7 +1332,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1348,7 +1347,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1363,7 +1362,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +1377,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -1393,7 +1392,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
@@ -1408,7 +1407,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1422,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -1438,7 +1437,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1452,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1465,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1478,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -1494,7 +1493,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1508,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1523,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -1556,7 +1555,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1571,7 +1570,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -1586,7 +1585,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1613,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1628,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>65</v>
       </c>
@@ -1644,7 +1643,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>70</v>
       </c>
@@ -1659,7 +1658,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1673,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>78</v>
       </c>
@@ -1702,7 +1701,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>84</v>
       </c>
@@ -1717,7 +1716,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>85</v>
       </c>
@@ -1732,7 +1731,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>93</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>85</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>97</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>85</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>100</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>85</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>105</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>108</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>110</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>100</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>113</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>115</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>127</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>128</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>11</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>132</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>135</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>149</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>150</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>152</v>
       </c>
@@ -2381,11 +2380,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D79">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D80"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
